--- a/Shablon/MSO-X4154A.xlsx
+++ b/Shablon/MSO-X4154A.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="213">
   <si>
     <t>3 Определение метрологических характеристик</t>
   </si>
@@ -810,6 +810,15 @@
   </si>
   <si>
     <t>Вывод: соответствует</t>
+  </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1100,125 +1109,128 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1555,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A179" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:J179"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,74 +1581,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1650,32 +1662,32 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1756,90 +1768,96 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="50" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="71" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="71" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="71" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="70"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -2024,25 +2042,25 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="61"/>
+      <c r="C36" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="58"/>
+      <c r="H36" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="51"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2061,10 +2079,10 @@
         <v>36</v>
       </c>
       <c r="G37" s="52"/>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="52"/>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="43" t="s">
         <v>101</v>
       </c>
@@ -2083,10 +2101,10 @@
         <v>37</v>
       </c>
       <c r="G38" s="52"/>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="53"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2138,10 +2156,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="52"/>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="43" t="s">
         <v>104</v>
       </c>
@@ -2237,10 +2255,10 @@
         <v>44</v>
       </c>
       <c r="G45" s="52"/>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="53"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,14 +2273,14 @@
       <c r="E46" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54" t="s">
+      <c r="G46" s="53"/>
+      <c r="H46" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="54"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2281,10 +2299,10 @@
         <v>46</v>
       </c>
       <c r="G47" s="52"/>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="53"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,25 +2344,25 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="48" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51" t="s">
+      <c r="G51" s="58"/>
+      <c r="H51" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="51"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2363,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="G52" s="52"/>
-      <c r="H52" s="53" t="s">
+      <c r="H52" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="53"/>
+      <c r="I52" s="54"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2374,10 +2392,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="52"/>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="54"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="43" t="s">
         <v>112</v>
       </c>
@@ -2385,10 +2403,10 @@
         <v>37</v>
       </c>
       <c r="G53" s="52"/>
-      <c r="H53" s="53" t="s">
+      <c r="H53" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="53"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2440,10 +2458,10 @@
         <v>18</v>
       </c>
       <c r="B56" s="52"/>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="54"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="43" t="s">
         <v>115</v>
       </c>
@@ -2524,25 +2542,25 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="48" t="s">
+      <c r="B60" s="61"/>
+      <c r="C60" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51" t="s">
+      <c r="G60" s="58"/>
+      <c r="H60" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="51"/>
+      <c r="I60" s="62"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2561,10 +2579,10 @@
         <v>44</v>
       </c>
       <c r="G61" s="52"/>
-      <c r="H61" s="53" t="s">
+      <c r="H61" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I61" s="53"/>
+      <c r="I61" s="54"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2579,14 +2597,14 @@
       <c r="E62" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54" t="s">
+      <c r="G62" s="53"/>
+      <c r="H62" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="54"/>
+      <c r="I62" s="53"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,10 +2623,10 @@
         <v>46</v>
       </c>
       <c r="G63" s="52"/>
-      <c r="H63" s="53" t="s">
+      <c r="H63" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I63" s="53"/>
+      <c r="I63" s="54"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,25 +2668,25 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="48" t="s">
+      <c r="B67" s="61"/>
+      <c r="C67" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="49"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="50" t="s">
+      <c r="F67" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="51" t="s">
+      <c r="G67" s="58"/>
+      <c r="H67" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="51"/>
+      <c r="I67" s="62"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2687,10 +2705,10 @@
         <v>36</v>
       </c>
       <c r="G68" s="52"/>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="53"/>
+      <c r="I68" s="54"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2698,10 +2716,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="52"/>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="54"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="43" t="s">
         <v>123</v>
       </c>
@@ -2709,10 +2727,10 @@
         <v>37</v>
       </c>
       <c r="G69" s="52"/>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="53"/>
+      <c r="I69" s="54"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,10 +2782,10 @@
         <v>18</v>
       </c>
       <c r="B72" s="52"/>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="54"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="43" t="s">
         <v>126</v>
       </c>
@@ -2863,10 +2881,10 @@
         <v>44</v>
       </c>
       <c r="G76" s="52"/>
-      <c r="H76" s="53" t="s">
+      <c r="H76" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I76" s="53"/>
+      <c r="I76" s="54"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,14 +2899,14 @@
       <c r="E77" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54" t="s">
+      <c r="G77" s="53"/>
+      <c r="H77" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I77" s="54"/>
+      <c r="I77" s="53"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,10 +2925,10 @@
         <v>46</v>
       </c>
       <c r="G78" s="52"/>
-      <c r="H78" s="53" t="s">
+      <c r="H78" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="53"/>
+      <c r="I78" s="54"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2952,25 +2970,25 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="48" t="s">
+      <c r="B82" s="61"/>
+      <c r="C82" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="49"/>
+      <c r="D82" s="61"/>
       <c r="E82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="50" t="s">
+      <c r="F82" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="50"/>
-      <c r="H82" s="51" t="s">
+      <c r="G82" s="58"/>
+      <c r="H82" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="51"/>
+      <c r="I82" s="62"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,10 +3007,10 @@
         <v>36</v>
       </c>
       <c r="G83" s="52"/>
-      <c r="H83" s="53" t="s">
+      <c r="H83" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I83" s="53"/>
+      <c r="I83" s="54"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="B84" s="52"/>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="54"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="43" t="s">
         <v>134</v>
       </c>
@@ -3011,10 +3029,10 @@
         <v>37</v>
       </c>
       <c r="G84" s="52"/>
-      <c r="H84" s="53" t="s">
+      <c r="H84" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I84" s="53"/>
+      <c r="I84" s="54"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,10 +3084,10 @@
         <v>18</v>
       </c>
       <c r="B87" s="52"/>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="54"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="43" t="s">
         <v>137</v>
       </c>
@@ -3165,10 +3183,10 @@
         <v>44</v>
       </c>
       <c r="G91" s="52"/>
-      <c r="H91" s="53" t="s">
+      <c r="H91" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="53"/>
+      <c r="I91" s="54"/>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3183,14 +3201,14 @@
       <c r="E92" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54" t="s">
+      <c r="G92" s="53"/>
+      <c r="H92" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I92" s="54"/>
+      <c r="I92" s="53"/>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,10 +3227,10 @@
         <v>46</v>
       </c>
       <c r="G93" s="52"/>
-      <c r="H93" s="53" t="s">
+      <c r="H93" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I93" s="53"/>
+      <c r="I93" s="54"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,18 +3246,18 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="74"/>
     </row>
     <row r="96" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="32"/>
@@ -3280,25 +3298,25 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="48" t="s">
+      <c r="B99" s="61"/>
+      <c r="C99" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="49"/>
+      <c r="D99" s="61"/>
       <c r="E99" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="50" t="s">
+      <c r="F99" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="50"/>
-      <c r="H99" s="51" t="s">
+      <c r="G99" s="58"/>
+      <c r="H99" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="51"/>
+      <c r="I99" s="62"/>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,10 +3335,10 @@
         <v>36</v>
       </c>
       <c r="G100" s="52"/>
-      <c r="H100" s="53" t="s">
+      <c r="H100" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I100" s="53"/>
+      <c r="I100" s="54"/>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,10 +3346,10 @@
         <v>15</v>
       </c>
       <c r="B101" s="52"/>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="54"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="43" t="s">
         <v>145</v>
       </c>
@@ -3339,10 +3357,10 @@
         <v>37</v>
       </c>
       <c r="G101" s="52"/>
-      <c r="H101" s="53" t="s">
+      <c r="H101" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I101" s="53"/>
+      <c r="I101" s="54"/>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3394,10 +3412,10 @@
         <v>18</v>
       </c>
       <c r="B104" s="52"/>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="54"/>
+      <c r="D104" s="53"/>
       <c r="E104" s="43" t="s">
         <v>148</v>
       </c>
@@ -3478,25 +3496,25 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="49"/>
-      <c r="C108" s="48" t="s">
+      <c r="B108" s="61"/>
+      <c r="C108" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="49"/>
+      <c r="D108" s="61"/>
       <c r="E108" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F108" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="50"/>
-      <c r="H108" s="51" t="s">
+      <c r="G108" s="58"/>
+      <c r="H108" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="51"/>
+      <c r="I108" s="62"/>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,10 +3533,10 @@
         <v>44</v>
       </c>
       <c r="G109" s="52"/>
-      <c r="H109" s="53" t="s">
+      <c r="H109" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I109" s="53"/>
+      <c r="I109" s="54"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,14 +3551,14 @@
       <c r="E110" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54" t="s">
+      <c r="G110" s="53"/>
+      <c r="H110" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I110" s="54"/>
+      <c r="I110" s="53"/>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,10 +3577,10 @@
         <v>46</v>
       </c>
       <c r="G111" s="52"/>
-      <c r="H111" s="53" t="s">
+      <c r="H111" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I111" s="53"/>
+      <c r="I111" s="54"/>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,25 +3622,25 @@
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="49"/>
-      <c r="C115" s="48" t="s">
+      <c r="B115" s="61"/>
+      <c r="C115" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="49"/>
+      <c r="D115" s="61"/>
       <c r="E115" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G115" s="50"/>
-      <c r="H115" s="51" t="s">
+      <c r="G115" s="58"/>
+      <c r="H115" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I115" s="51"/>
+      <c r="I115" s="62"/>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,10 +3659,10 @@
         <v>36</v>
       </c>
       <c r="G116" s="52"/>
-      <c r="H116" s="53" t="s">
+      <c r="H116" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I116" s="53"/>
+      <c r="I116" s="54"/>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,10 +3670,10 @@
         <v>15</v>
       </c>
       <c r="B117" s="52"/>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D117" s="54"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="43" t="s">
         <v>156</v>
       </c>
@@ -3663,10 +3681,10 @@
         <v>37</v>
       </c>
       <c r="G117" s="52"/>
-      <c r="H117" s="53" t="s">
+      <c r="H117" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I117" s="53"/>
+      <c r="I117" s="54"/>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3718,10 +3736,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="52"/>
-      <c r="C120" s="54" t="s">
+      <c r="C120" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D120" s="54"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="43" t="s">
         <v>159</v>
       </c>
@@ -3817,10 +3835,10 @@
         <v>44</v>
       </c>
       <c r="G124" s="52"/>
-      <c r="H124" s="53" t="s">
+      <c r="H124" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I124" s="53"/>
+      <c r="I124" s="54"/>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3835,14 +3853,14 @@
       <c r="E125" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54" t="s">
+      <c r="G125" s="53"/>
+      <c r="H125" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I125" s="54"/>
+      <c r="I125" s="53"/>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3861,10 +3879,10 @@
         <v>46</v>
       </c>
       <c r="G126" s="52"/>
-      <c r="H126" s="53" t="s">
+      <c r="H126" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I126" s="53"/>
+      <c r="I126" s="54"/>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3906,25 +3924,25 @@
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B130" s="49"/>
-      <c r="C130" s="48" t="s">
+      <c r="B130" s="61"/>
+      <c r="C130" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D130" s="49"/>
+      <c r="D130" s="61"/>
       <c r="E130" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="50" t="s">
+      <c r="F130" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="50"/>
-      <c r="H130" s="51" t="s">
+      <c r="G130" s="58"/>
+      <c r="H130" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="51"/>
+      <c r="I130" s="62"/>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3943,10 +3961,10 @@
         <v>36</v>
       </c>
       <c r="G131" s="52"/>
-      <c r="H131" s="53" t="s">
+      <c r="H131" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I131" s="53"/>
+      <c r="I131" s="54"/>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,10 +3972,10 @@
         <v>15</v>
       </c>
       <c r="B132" s="52"/>
-      <c r="C132" s="54" t="s">
+      <c r="C132" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="54"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="43" t="s">
         <v>167</v>
       </c>
@@ -3965,10 +3983,10 @@
         <v>37</v>
       </c>
       <c r="G132" s="52"/>
-      <c r="H132" s="53" t="s">
+      <c r="H132" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I132" s="53"/>
+      <c r="I132" s="54"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4020,10 +4038,10 @@
         <v>18</v>
       </c>
       <c r="B135" s="52"/>
-      <c r="C135" s="54" t="s">
+      <c r="C135" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="54"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="43" t="s">
         <v>170</v>
       </c>
@@ -4119,10 +4137,10 @@
         <v>44</v>
       </c>
       <c r="G139" s="52"/>
-      <c r="H139" s="53" t="s">
+      <c r="H139" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I139" s="53"/>
+      <c r="I139" s="54"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4137,14 +4155,14 @@
       <c r="E140" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F140" s="54" t="s">
+      <c r="F140" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54" t="s">
+      <c r="G140" s="53"/>
+      <c r="H140" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I140" s="54"/>
+      <c r="I140" s="53"/>
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4163,10 +4181,10 @@
         <v>46</v>
       </c>
       <c r="G141" s="52"/>
-      <c r="H141" s="53" t="s">
+      <c r="H141" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I141" s="53"/>
+      <c r="I141" s="54"/>
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4208,25 +4226,25 @@
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B145" s="49"/>
-      <c r="C145" s="48" t="s">
+      <c r="B145" s="61"/>
+      <c r="C145" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D145" s="49"/>
+      <c r="D145" s="61"/>
       <c r="E145" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="50" t="s">
+      <c r="F145" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="50"/>
-      <c r="H145" s="51" t="s">
+      <c r="G145" s="58"/>
+      <c r="H145" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I145" s="51"/>
+      <c r="I145" s="62"/>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4245,10 +4263,10 @@
         <v>36</v>
       </c>
       <c r="G146" s="52"/>
-      <c r="H146" s="53" t="s">
+      <c r="H146" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="I146" s="53"/>
+      <c r="I146" s="54"/>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4256,10 +4274,10 @@
         <v>15</v>
       </c>
       <c r="B147" s="52"/>
-      <c r="C147" s="54" t="s">
+      <c r="C147" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="54"/>
+      <c r="D147" s="53"/>
       <c r="E147" s="43" t="s">
         <v>178</v>
       </c>
@@ -4267,10 +4285,10 @@
         <v>37</v>
       </c>
       <c r="G147" s="52"/>
-      <c r="H147" s="53" t="s">
+      <c r="H147" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I147" s="53"/>
+      <c r="I147" s="54"/>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4322,10 +4340,10 @@
         <v>18</v>
       </c>
       <c r="B150" s="52"/>
-      <c r="C150" s="54" t="s">
+      <c r="C150" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="54"/>
+      <c r="D150" s="53"/>
       <c r="E150" s="43" t="s">
         <v>181</v>
       </c>
@@ -4421,10 +4439,10 @@
         <v>44</v>
       </c>
       <c r="G154" s="52"/>
-      <c r="H154" s="53" t="s">
+      <c r="H154" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I154" s="53"/>
+      <c r="I154" s="54"/>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4439,36 +4457,36 @@
       <c r="E155" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="F155" s="54" t="s">
+      <c r="F155" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G155" s="54"/>
-      <c r="H155" s="54" t="s">
+      <c r="G155" s="53"/>
+      <c r="H155" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I155" s="54"/>
+      <c r="I155" s="53"/>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="48" t="s">
+      <c r="A156" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="48" t="s">
+      <c r="B156" s="61"/>
+      <c r="C156" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D156" s="49"/>
+      <c r="D156" s="61"/>
       <c r="E156" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="50" t="s">
+      <c r="F156" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="50"/>
-      <c r="H156" s="51" t="s">
+      <c r="G156" s="58"/>
+      <c r="H156" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I156" s="51"/>
+      <c r="I156" s="62"/>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4487,10 +4505,10 @@
         <v>46</v>
       </c>
       <c r="G157" s="52"/>
-      <c r="H157" s="53" t="s">
+      <c r="H157" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I157" s="53"/>
+      <c r="I157" s="54"/>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4506,13 +4524,13 @@
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47" t="s">
+      <c r="A159" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
       <c r="F159" s="32"/>
       <c r="G159" s="32"/>
       <c r="H159" s="24"/>
@@ -4532,67 +4550,67 @@
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50" t="s">
+      <c r="B161" s="58"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="50" t="s">
+      <c r="E161" s="58"/>
+      <c r="F161" s="58"/>
+      <c r="G161" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="58"/>
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="64" t="s">
+      <c r="A162" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="65"/>
-      <c r="I162" s="66"/>
+      <c r="B162" s="76"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="76"/>
+      <c r="E162" s="76"/>
+      <c r="F162" s="76"/>
+      <c r="G162" s="76"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="77"/>
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="56">
+      <c r="A163" s="78">
         <v>1500</v>
       </c>
-      <c r="B163" s="57"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="59" t="s">
+      <c r="B163" s="79"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E163" s="60"/>
-      <c r="F163" s="61"/>
-      <c r="G163" s="56">
+      <c r="E163" s="82"/>
+      <c r="F163" s="83"/>
+      <c r="G163" s="78">
         <v>-3</v>
       </c>
-      <c r="H163" s="57"/>
-      <c r="I163" s="58"/>
+      <c r="H163" s="79"/>
+      <c r="I163" s="80"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="64" t="s">
+      <c r="A164" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B164" s="65"/>
-      <c r="C164" s="65"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="65"/>
-      <c r="F164" s="65"/>
-      <c r="G164" s="65"/>
-      <c r="H164" s="65"/>
-      <c r="I164" s="66"/>
+      <c r="B164" s="76"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="76"/>
+      <c r="E164" s="76"/>
+      <c r="F164" s="76"/>
+      <c r="G164" s="76"/>
+      <c r="H164" s="76"/>
+      <c r="I164" s="77"/>
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,11 +4619,11 @@
       </c>
       <c r="B165" s="52"/>
       <c r="C165" s="52"/>
-      <c r="D165" s="59" t="s">
+      <c r="D165" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="E165" s="60"/>
-      <c r="F165" s="61"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="83"/>
       <c r="G165" s="52">
         <v>-3</v>
       </c>
@@ -4614,30 +4632,30 @@
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="64" t="s">
+      <c r="A166" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B166" s="65"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="65"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
-      <c r="H166" s="65"/>
-      <c r="I166" s="66"/>
+      <c r="B166" s="76"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="76"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="77"/>
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="56">
+      <c r="A167" s="78">
         <v>1500</v>
       </c>
-      <c r="B167" s="57"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="59" t="s">
+      <c r="B167" s="79"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="E167" s="60"/>
-      <c r="F167" s="61"/>
+      <c r="E167" s="82"/>
+      <c r="F167" s="83"/>
       <c r="G167" s="52">
         <v>-3</v>
       </c>
@@ -4646,35 +4664,35 @@
       <c r="J167" s="33"/>
     </row>
     <row r="168" spans="1:10" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B168" s="55"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="55"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="55"/>
+      <c r="B168" s="84"/>
+      <c r="C168" s="84"/>
+      <c r="D168" s="84"/>
+      <c r="E168" s="84"/>
+      <c r="F168" s="84"/>
+      <c r="G168" s="84"/>
+      <c r="H168" s="84"/>
+      <c r="I168" s="84"/>
       <c r="J168" s="31"/>
     </row>
     <row r="169" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="56">
+      <c r="A169" s="78">
         <v>1500</v>
       </c>
-      <c r="B169" s="57"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="59" t="s">
+      <c r="B169" s="79"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="E169" s="60"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="56">
+      <c r="E169" s="82"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="78">
         <v>-3</v>
       </c>
-      <c r="H169" s="57"/>
-      <c r="I169" s="58"/>
+      <c r="H169" s="79"/>
+      <c r="I169" s="80"/>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4707,37 +4725,37 @@
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="48" t="s">
+      <c r="A173" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B173" s="62"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="48" t="s">
+      <c r="B173" s="85"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E173" s="62"/>
-      <c r="F173" s="49"/>
-      <c r="G173" s="48" t="s">
+      <c r="E173" s="85"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H173" s="62"/>
-      <c r="I173" s="49"/>
+      <c r="H173" s="85"/>
+      <c r="I173" s="61"/>
       <c r="J173" s="39"/>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="63">
+      <c r="A174" s="86">
         <v>10000000</v>
       </c>
-      <c r="B174" s="57"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="56">
+      <c r="B174" s="79"/>
+      <c r="C174" s="80"/>
+      <c r="D174" s="78"/>
+      <c r="E174" s="79"/>
+      <c r="F174" s="80"/>
+      <c r="G174" s="78">
         <v>100</v>
       </c>
-      <c r="H174" s="57"/>
-      <c r="I174" s="58"/>
+      <c r="H174" s="79"/>
+      <c r="I174" s="80"/>
       <c r="J174" s="39"/>
     </row>
     <row r="175" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,7 +4776,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="86" t="s">
+      <c r="A177" s="47" t="s">
         <v>209</v>
       </c>
       <c r="B177" s="46"/>
@@ -4784,18 +4802,18 @@
       <c r="J178" s="39"/>
     </row>
     <row r="179" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47" t="s">
+      <c r="A179" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="47"/>
-      <c r="H179" s="47"/>
-      <c r="I179" s="47"/>
-      <c r="J179" s="47"/>
+      <c r="B179" s="74"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="74"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="74"/>
     </row>
     <row r="180" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="32"/>
@@ -4824,82 +4842,82 @@
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="69" t="s">
+      <c r="A182" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B182" s="70"/>
-      <c r="C182" s="50" t="s">
+      <c r="B182" s="73"/>
+      <c r="C182" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D182" s="50"/>
-      <c r="E182" s="50" t="s">
+      <c r="D182" s="58"/>
+      <c r="E182" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F182" s="50"/>
-      <c r="G182" s="50" t="s">
+      <c r="F182" s="58"/>
+      <c r="G182" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H182" s="50"/>
+      <c r="H182" s="58"/>
       <c r="I182" s="22"/>
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="69" t="s">
+      <c r="A183" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B183" s="70"/>
-      <c r="C183" s="67" t="s">
+      <c r="B183" s="73"/>
+      <c r="C183" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D183" s="67"/>
-      <c r="E183" s="50" t="s">
+      <c r="D183" s="57"/>
+      <c r="E183" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F183" s="50"/>
-      <c r="G183" s="68" t="s">
+      <c r="F183" s="58"/>
+      <c r="G183" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H183" s="68"/>
+      <c r="H183" s="59"/>
       <c r="I183" s="22"/>
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="69" t="s">
+      <c r="A184" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B184" s="70"/>
-      <c r="C184" s="67" t="s">
+      <c r="B184" s="73"/>
+      <c r="C184" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D184" s="67"/>
-      <c r="E184" s="50" t="s">
+      <c r="D184" s="57"/>
+      <c r="E184" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F184" s="50"/>
-      <c r="G184" s="68" t="s">
+      <c r="F184" s="58"/>
+      <c r="G184" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H184" s="68"/>
+      <c r="H184" s="59"/>
       <c r="I184" s="22"/>
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="69" t="s">
+      <c r="A185" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B185" s="70"/>
-      <c r="C185" s="67" t="s">
+      <c r="B185" s="73"/>
+      <c r="C185" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D185" s="67"/>
-      <c r="E185" s="50" t="s">
+      <c r="D185" s="57"/>
+      <c r="E185" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F185" s="50"/>
-      <c r="G185" s="68" t="s">
+      <c r="F185" s="58"/>
+      <c r="G185" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H185" s="68"/>
+      <c r="H185" s="59"/>
       <c r="I185" s="22"/>
       <c r="J185" s="3"/>
     </row>
@@ -4940,93 +4958,93 @@
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="69" t="s">
+      <c r="A189" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B189" s="70"/>
-      <c r="C189" s="50" t="s">
+      <c r="B189" s="73"/>
+      <c r="C189" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50" t="s">
+      <c r="D189" s="58"/>
+      <c r="E189" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50" t="s">
+      <c r="F189" s="58"/>
+      <c r="G189" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H189" s="50"/>
+      <c r="H189" s="58"/>
       <c r="I189" s="25"/>
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="69" t="s">
+      <c r="A190" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B190" s="70"/>
-      <c r="C190" s="67" t="s">
+      <c r="B190" s="73"/>
+      <c r="C190" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D190" s="67"/>
-      <c r="E190" s="50" t="s">
+      <c r="D190" s="57"/>
+      <c r="E190" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F190" s="50"/>
-      <c r="G190" s="68" t="s">
+      <c r="F190" s="58"/>
+      <c r="G190" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H190" s="68"/>
+      <c r="H190" s="59"/>
       <c r="I190" s="25"/>
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="69" t="s">
+      <c r="A191" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B191" s="70"/>
-      <c r="C191" s="67" t="s">
+      <c r="B191" s="73"/>
+      <c r="C191" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="67"/>
-      <c r="E191" s="50" t="s">
+      <c r="D191" s="57"/>
+      <c r="E191" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F191" s="50"/>
-      <c r="G191" s="68" t="s">
+      <c r="F191" s="58"/>
+      <c r="G191" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H191" s="68"/>
+      <c r="H191" s="59"/>
       <c r="I191" s="25"/>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="69" t="s">
+      <c r="A192" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B192" s="70"/>
-      <c r="C192" s="67" t="s">
+      <c r="B192" s="73"/>
+      <c r="C192" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D192" s="67"/>
-      <c r="E192" s="50" t="s">
+      <c r="D192" s="57"/>
+      <c r="E192" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F192" s="50"/>
-      <c r="G192" s="68" t="s">
+      <c r="F192" s="58"/>
+      <c r="G192" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H192" s="68"/>
+      <c r="H192" s="59"/>
       <c r="I192" s="25"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="35"/>
-      <c r="C193" s="80"/>
-      <c r="D193" s="80"/>
-      <c r="E193" s="80"/>
-      <c r="F193" s="80"/>
-      <c r="G193" s="81"/>
-      <c r="H193" s="81"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
       <c r="I193" s="22"/>
       <c r="J193" s="3"/>
     </row>
@@ -5061,30 +5079,30 @@
       <c r="B196" s="5"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="82" t="s">
+      <c r="E196" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F196" s="82"/>
-      <c r="G196" s="83" t="s">
+      <c r="F196" s="48"/>
+      <c r="G196" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="H196" s="83"/>
+      <c r="H196" s="49"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="82" t="s">
+      <c r="A197" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="82"/>
+      <c r="B197" s="48"/>
       <c r="C197" s="41"/>
       <c r="D197" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="E197" s="84" t="s">
+      <c r="E197" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F197" s="85"/>
+      <c r="F197" s="51"/>
       <c r="G197" s="39" t="s">
         <v>197</v>
       </c>
@@ -5101,6 +5119,470 @@
     <row r="203" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="488">
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="A168:I168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="G163:I163"/>
+    <mergeCell ref="A164:I164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="A166:I166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="G167:I167"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="A162:I162"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="A179:J179"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
     <mergeCell ref="E196:F196"/>
     <mergeCell ref="G196:H196"/>
     <mergeCell ref="A197:B197"/>
@@ -5125,470 +5607,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="A179:J179"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="A162:I162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="G163:I163"/>
-    <mergeCell ref="A164:I164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="A166:I166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="G167:I167"/>
-    <mergeCell ref="A168:I168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="F150:G150"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
